--- a/test_score.xlsx
+++ b/test_score.xlsx
@@ -1,46 +1,311 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hojin\Desktop\hci_project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32E7190-383C-4032-BD71-929382C60FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="성적표" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="89">
+  <si>
+    <t>학수번호</t>
+  </si>
+  <si>
+    <t>교과목명</t>
+  </si>
+  <si>
+    <t>이수구분</t>
+  </si>
+  <si>
+    <t>학점</t>
+  </si>
+  <si>
+    <t>HBLA5201</t>
+  </si>
+  <si>
+    <t>컴퓨팅사고와데이터의이해</t>
+  </si>
+  <si>
+    <t>교필</t>
+  </si>
+  <si>
+    <t>HBLC5045</t>
+  </si>
+  <si>
+    <t>자연과학의이해</t>
+  </si>
+  <si>
+    <t>교선</t>
+  </si>
+  <si>
+    <t>HBLG9053</t>
+  </si>
+  <si>
+    <t>교양과인성(소프트웨어학과)</t>
+  </si>
+  <si>
+    <t>HBLR2040</t>
+  </si>
+  <si>
+    <t>중국어입문</t>
+  </si>
+  <si>
+    <t>HBLA5001</t>
+  </si>
+  <si>
+    <t>사고와표현</t>
+  </si>
+  <si>
+    <t>HBLA5202</t>
+  </si>
+  <si>
+    <t>알고리즘과게임콘텐츠</t>
+  </si>
+  <si>
+    <t>HBLA5210</t>
+  </si>
+  <si>
+    <t>EnglishforAcademicPurposes</t>
+  </si>
+  <si>
+    <t>HBLG2046</t>
+  </si>
+  <si>
+    <t>천안의이해</t>
+  </si>
+  <si>
+    <t>HBLG9040</t>
+  </si>
+  <si>
+    <t>인물로보는역사</t>
+  </si>
+  <si>
+    <t>HBLB5064</t>
+  </si>
+  <si>
+    <t>하이테크사회의인간관계론</t>
+  </si>
+  <si>
+    <t>HCLC5050</t>
+  </si>
+  <si>
+    <t>기업가정신과창업모델</t>
+  </si>
+  <si>
+    <t>HBLA5052</t>
+  </si>
+  <si>
+    <t>융합창의수학</t>
+  </si>
+  <si>
+    <t>HBLB5071</t>
+  </si>
+  <si>
+    <t>빅히스토리와인공지능</t>
+  </si>
+  <si>
+    <t>HBLD5029</t>
+  </si>
+  <si>
+    <t>웨이트트레이닝</t>
+  </si>
+  <si>
+    <t>HBLF0024</t>
+  </si>
+  <si>
+    <t>기업경영과비즈니스전략</t>
+  </si>
+  <si>
+    <t>HBLB5031</t>
+  </si>
+  <si>
+    <t>발명과창업</t>
+  </si>
+  <si>
+    <t>HBRT1004</t>
+  </si>
+  <si>
+    <t>전쟁사</t>
+  </si>
+  <si>
+    <t>일선</t>
+  </si>
+  <si>
+    <t>HBJE2161</t>
+  </si>
+  <si>
+    <t>경영통계학</t>
+  </si>
+  <si>
+    <t>HBJE4301</t>
+  </si>
+  <si>
+    <t>금융상품론</t>
+  </si>
+  <si>
+    <t>HBJE4482</t>
+  </si>
+  <si>
+    <t>재무설계II</t>
+  </si>
+  <si>
+    <t>HBJO2173</t>
+  </si>
+  <si>
+    <t>컴퓨터프로그래밍 I (PBL)</t>
+  </si>
+  <si>
+    <t>1전선</t>
+  </si>
+  <si>
+    <t>HBJO2193</t>
+  </si>
+  <si>
+    <t>소프트웨어개론(SW)</t>
+  </si>
+  <si>
+    <t>HBJO2216</t>
+  </si>
+  <si>
+    <t>확률통계(Flip)</t>
+  </si>
+  <si>
+    <t>HBJO2161</t>
+  </si>
+  <si>
+    <t>컴퓨터프로그래밍II(PBL)</t>
+  </si>
+  <si>
+    <t>HBJO2225</t>
+  </si>
+  <si>
+    <t>컴퓨터프로그래밍실습(PBL)</t>
+  </si>
+  <si>
+    <t>HBJW0001</t>
+  </si>
+  <si>
+    <t>이산수학</t>
+  </si>
+  <si>
+    <t>HBJO2122</t>
+  </si>
+  <si>
+    <t>컴퓨터구조</t>
+  </si>
+  <si>
+    <t>HBJO2177</t>
+  </si>
+  <si>
+    <t>객체지향프로그래밍</t>
+  </si>
+  <si>
+    <t>HBJO2226</t>
+  </si>
+  <si>
+    <t>데이터구조실습(PBL)</t>
+  </si>
+  <si>
+    <t>HBJW0006</t>
+  </si>
+  <si>
+    <t>데이터구조(PBL)</t>
+  </si>
+  <si>
+    <t>HBJW0012</t>
+  </si>
+  <si>
+    <t>리눅스프로그래밍(PBL)</t>
+  </si>
+  <si>
+    <t>HBJO2184</t>
+  </si>
+  <si>
+    <t>데이터베이스</t>
+  </si>
+  <si>
+    <t>HBJO2178</t>
+  </si>
+  <si>
+    <t>네트워크(PBL)</t>
+  </si>
+  <si>
+    <t>HBJO2223</t>
+  </si>
+  <si>
+    <t>소프트웨어공학(PBL)</t>
+  </si>
+  <si>
+    <t>HBJO2236</t>
+  </si>
+  <si>
+    <t>인공지능(PBL)</t>
+  </si>
+  <si>
+    <t>HBJO0052</t>
+  </si>
+  <si>
+    <t>웹서버프로그래밍(PBL)</t>
+  </si>
+  <si>
+    <t>1전심</t>
+  </si>
+  <si>
+    <t>HBJO0053</t>
+  </si>
+  <si>
+    <t>영상처리(PBL)</t>
+  </si>
+  <si>
+    <t>HBJQ0026</t>
+  </si>
+  <si>
+    <t>디지털포렌식</t>
+  </si>
+  <si>
+    <t>HBJW0008</t>
+  </si>
+  <si>
+    <t>웹프로그래밍</t>
+  </si>
+  <si>
+    <t>HBJW0021</t>
+  </si>
+  <si>
+    <t>인간-컴퓨터 상호작용(PBL)</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -65,13 +330,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,589 +669,597 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:C5"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="26.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>학수번호</v>
-      </c>
-      <c r="B1" t="str">
-        <v>교과목명</v>
-      </c>
-      <c r="C1" t="str">
-        <v>이수구분</v>
-      </c>
-      <c r="D1" t="str">
-        <v>학점</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>HBLA5201</v>
-      </c>
-      <c r="B2" t="str">
-        <v>컴퓨팅사고와데이터의이해</v>
-      </c>
-      <c r="C2" t="str">
-        <v>교필</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>HBLC5045</v>
-      </c>
-      <c r="B3" t="str">
-        <v>자연과학의이해</v>
-      </c>
-      <c r="C3" t="str">
-        <v>교선</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>HBLG9053</v>
-      </c>
-      <c r="B4" t="str">
-        <v>교양과인성(소프트웨어학과)</v>
-      </c>
-      <c r="C4" t="str">
-        <v>교선</v>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>HBLR2040</v>
-      </c>
-      <c r="B5" t="str">
-        <v>중국어입문</v>
-      </c>
-      <c r="C5" t="str">
-        <v>교선</v>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>HBLA5001</v>
-      </c>
-      <c r="B6" t="str">
-        <v>사고와표현</v>
-      </c>
-      <c r="C6" t="str">
-        <v>교필</v>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>HBLA5202</v>
-      </c>
-      <c r="B7" t="str">
-        <v>알고리즘과게임콘텐츠</v>
-      </c>
-      <c r="C7" t="str">
-        <v>교필</v>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>HBLA5210</v>
-      </c>
-      <c r="B8" t="str">
-        <v>EnglishforAcademicPurposes</v>
-      </c>
-      <c r="C8" t="str">
-        <v>교필</v>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>HBLG2046</v>
-      </c>
-      <c r="B9" t="str">
-        <v>천안의이해</v>
-      </c>
-      <c r="C9" t="str">
-        <v>교선</v>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>HBLG9040</v>
-      </c>
-      <c r="B10" t="str">
-        <v>인물로보는역사</v>
-      </c>
-      <c r="C10" t="str">
-        <v>교선</v>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
       </c>
       <c r="D10">
         <v>3</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>HBLB5064</v>
-      </c>
-      <c r="B11" t="str">
-        <v>하이테크사회의인간관계론</v>
-      </c>
-      <c r="C11" t="str">
-        <v>교선</v>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
       </c>
       <c r="D11">
         <v>3</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>HCLC5050</v>
-      </c>
-      <c r="B12" t="str">
-        <v>기업가정신과창업모델</v>
-      </c>
-      <c r="C12" t="str">
-        <v>교선</v>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>HBLA5052</v>
-      </c>
-      <c r="B13" t="str">
-        <v>융합창의수학</v>
-      </c>
-      <c r="C13" t="str">
-        <v>교필</v>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>HBLB5071</v>
-      </c>
-      <c r="B14" t="str">
-        <v>빅히스토리와인공지능</v>
-      </c>
-      <c r="C14" t="str">
-        <v>교필</v>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>HBLD5029</v>
-      </c>
-      <c r="B15" t="str">
-        <v>웨이트트레이닝</v>
-      </c>
-      <c r="C15" t="str">
-        <v>교선</v>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>HBLF0024</v>
-      </c>
-      <c r="B16" t="str">
-        <v>기업경영과비즈니스전략</v>
-      </c>
-      <c r="C16" t="str">
-        <v>교선</v>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>HBLB5031</v>
-      </c>
-      <c r="B17" t="str">
-        <v>발명과창업</v>
-      </c>
-      <c r="C17" t="str">
-        <v>교선</v>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>HBRT1004</v>
-      </c>
-      <c r="B18" t="str">
-        <v>전쟁사</v>
-      </c>
-      <c r="C18" t="str">
-        <v>일선</v>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>HBJE2161</v>
-      </c>
-      <c r="B19" t="str">
-        <v>경영통계학</v>
-      </c>
-      <c r="C19" t="str">
-        <v>일선</v>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>HBJE4301</v>
-      </c>
-      <c r="B20" t="str">
-        <v>금융상품론</v>
-      </c>
-      <c r="C20" t="str">
-        <v>일선</v>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
       </c>
       <c r="D20">
         <v>3</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>HBJE4482</v>
-      </c>
-      <c r="B21" t="str">
-        <v>재무설계II</v>
-      </c>
-      <c r="C21" t="str">
-        <v>일선</v>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
       </c>
       <c r="D21">
         <v>3</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>HBJO2173</v>
-      </c>
-      <c r="B22" t="str">
-        <v>컴퓨터프로그래밍 I (PBL)</v>
-      </c>
-      <c r="C22" t="str">
-        <v>1전선</v>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" t="s">
+        <v>49</v>
       </c>
       <c r="D22">
         <v>3</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>HBJO2193</v>
-      </c>
-      <c r="B23" t="str">
-        <v>소프트웨어개론(SW)</v>
-      </c>
-      <c r="C23" t="str">
-        <v>1전선</v>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
       </c>
       <c r="D23">
         <v>3</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>HBJO2216</v>
-      </c>
-      <c r="B24" t="str">
-        <v>확률통계(Flip)</v>
-      </c>
-      <c r="C24" t="str">
-        <v>1전선</v>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
       </c>
       <c r="D24">
         <v>3</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>HBJO2161</v>
-      </c>
-      <c r="B25" t="str">
-        <v>컴퓨터프로그래밍II(PBL)</v>
-      </c>
-      <c r="C25" t="str">
-        <v>1전선</v>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
       </c>
       <c r="D25">
         <v>3</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>HBJO2225</v>
-      </c>
-      <c r="B26" t="str">
-        <v>컴퓨터프로그래밍실습(PBL)</v>
-      </c>
-      <c r="C26" t="str">
-        <v>1전선</v>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
       </c>
       <c r="D26">
         <v>3</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>HBJW0001</v>
-      </c>
-      <c r="B27" t="str">
-        <v>이산수학</v>
-      </c>
-      <c r="C27" t="str">
-        <v>1전선</v>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" t="s">
+        <v>49</v>
       </c>
       <c r="D27">
         <v>3</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>HBJO2122</v>
-      </c>
-      <c r="B28" t="str">
-        <v>컴퓨터구조</v>
-      </c>
-      <c r="C28" t="str">
-        <v>1전선</v>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
       </c>
       <c r="D28">
         <v>3</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>HBJO2177</v>
-      </c>
-      <c r="B29" t="str">
-        <v>객체지향프로그래밍</v>
-      </c>
-      <c r="C29" t="str">
-        <v>1전선</v>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
+        <v>49</v>
       </c>
       <c r="D29">
         <v>3</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>HBJO2226</v>
-      </c>
-      <c r="B30" t="str">
-        <v>데이터구조실습(PBL)</v>
-      </c>
-      <c r="C30" t="str">
-        <v>1전선</v>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" t="s">
+        <v>49</v>
       </c>
       <c r="D30">
         <v>3</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>HBJW0006</v>
-      </c>
-      <c r="B31" t="str">
-        <v>데이터구조(PBL)</v>
-      </c>
-      <c r="C31" t="str">
-        <v>1전선</v>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" t="s">
+        <v>49</v>
       </c>
       <c r="D31">
         <v>3</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v>HBJW0012</v>
-      </c>
-      <c r="B32" t="str">
-        <v>리눅스프로그래밍(PBL)</v>
-      </c>
-      <c r="C32" t="str">
-        <v>1전선</v>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
       </c>
       <c r="D32">
         <v>3</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>HBJO2184</v>
-      </c>
-      <c r="B33" t="str">
-        <v>데이터베이스</v>
-      </c>
-      <c r="C33" t="str">
-        <v>1전선</v>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" t="s">
+        <v>49</v>
       </c>
       <c r="D33">
         <v>3</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>HBJO2178</v>
-      </c>
-      <c r="B34" t="str">
-        <v>네트워크(PBL)</v>
-      </c>
-      <c r="C34" t="str">
-        <v>1전선</v>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" t="s">
+        <v>49</v>
       </c>
       <c r="D34">
         <v>3</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>HBJO2223</v>
-      </c>
-      <c r="B35" t="str">
-        <v>소프트웨어공학(PBL)</v>
-      </c>
-      <c r="C35" t="str">
-        <v>1전선</v>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" t="s">
+        <v>49</v>
       </c>
       <c r="D35">
         <v>3</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>HBJO2236</v>
-      </c>
-      <c r="B36" t="str">
-        <v>인공지능(PBL)</v>
-      </c>
-      <c r="C36" t="str">
-        <v>1전선</v>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" t="s">
+        <v>49</v>
       </c>
       <c r="D36">
         <v>3</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>HBJO0052</v>
-      </c>
-      <c r="B37" t="str">
-        <v>웹서버프로그래밍(PBL)</v>
-      </c>
-      <c r="C37" t="str">
-        <v>1전심</v>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" t="s">
+        <v>80</v>
       </c>
       <c r="D37">
         <v>3</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>HBJO0053</v>
-      </c>
-      <c r="B38" t="str">
-        <v>영상처리(PBL)</v>
-      </c>
-      <c r="C38" t="str">
-        <v>1전선</v>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" t="s">
+        <v>49</v>
       </c>
       <c r="D38">
         <v>3</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>HBJQ0026</v>
-      </c>
-      <c r="B39" t="str">
-        <v>디지털포렌식</v>
-      </c>
-      <c r="C39" t="str">
-        <v>1전선</v>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" t="s">
+        <v>49</v>
       </c>
       <c r="D39">
         <v>3</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="str">
-        <v>HBJW0008</v>
-      </c>
-      <c r="B40" t="str">
-        <v>웹프로그래밍</v>
-      </c>
-      <c r="C40" t="str">
-        <v>1전선</v>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" t="s">
+        <v>49</v>
       </c>
       <c r="D40">
         <v>3</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="str">
-        <v>HBJW0021</v>
-      </c>
-      <c r="B41" t="str">
-        <v>인간-컴퓨터 상호작용(PBL)</v>
-      </c>
-      <c r="C41" t="str">
-        <v>1전선</v>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" t="s">
+        <v>49</v>
       </c>
       <c r="D41">
         <v>3</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D41"/>
+    <ignoredError sqref="A1:D41" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>